--- a/data/case1/14/P2_2.xlsx
+++ b/data/case1/14/P2_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.43187965612131052</v>
+        <v>0.29884856315290165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.059342454814043322</v>
+        <v>-0.069167100505421075</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995366820684</v>
+        <v>-0.0089999996757619272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999866729283</v>
+        <v>-0.011999999916646686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999995420580987</v>
+        <v>0.068388804065165232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999995259190086</v>
+        <v>-0.0059999996753816731</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999432721793</v>
+        <v>-0.019999999610703867</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999429644255</v>
+        <v>-0.019999999605924579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999995192843159</v>
+        <v>-0.005999999663344191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995178330323</v>
+        <v>-0.00599999965837128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999995276846505</v>
+        <v>-0.0044999996644001783</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.022511058823718511</v>
+        <v>-0.0059999996562836166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995137749451</v>
+        <v>-0.0059999996508599551</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999473326639</v>
+        <v>-0.011999999622117841</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999995123378724</v>
+        <v>-0.0059999996478667939</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.02518243823482802</v>
+        <v>-0.0059999996466360006</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.033557195081799662</v>
+        <v>-0.0059999996450423865</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999994960567875</v>
+        <v>-0.0089999996311158625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.054787277007634749</v>
+        <v>-0.0089999996831937601</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999995468463823</v>
+        <v>-0.0089999996802418991</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999995461678139</v>
+        <v>-0.0089999996797631709</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.008999999545615367</v>
+        <v>-0.0089999996794096759</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995322349591</v>
+        <v>-0.0089999996726586318</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999307813063</v>
+        <v>-0.041999999518433029</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999303715008</v>
+        <v>-0.041999999515674347</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995239152781</v>
+        <v>0.047185771513465369</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995209283341</v>
+        <v>-0.0059999996733886007</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999995097488323</v>
+        <v>-0.005999999667475997</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.01199999946265784</v>
+        <v>-0.011999999636481462</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999406173252</v>
+        <v>-0.019999999598501628</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999433481292</v>
+        <v>0.030777374747460229</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0209999993930996</v>
+        <v>-0.020999999590114449</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.005999999491283603</v>
+        <v>-0.038459639069819751</v>
       </c>
     </row>
   </sheetData>
